--- a/sites_fermés.xlsx
+++ b/sites_fermés.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moise\Downloads\report_and_tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moise\Downloads\caris-dashboard-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABFDBCF-7C18-4FF3-BC49-0F8B2637345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9CDFA1-45B5-4F7B-AE6A-E928DE49395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$61</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1036,7 +1047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3264,6 +3277,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
